--- a/Doc/Resume.xlsx
+++ b/Doc/Resume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www16\someProject\resume_Dashboard\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{672FC7ED-6D38-419E-97BF-4EC07EF7430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830083AC-FBAB-4106-8A78-E743967ED0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31200" yWindow="135" windowWidth="28800" windowHeight="15345" xr2:uid="{AC176074-703E-4FD0-B993-BF0A13956E08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{AC176074-703E-4FD0-B993-BF0A13956E08}"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Career Summary" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Label</t>
   </si>
@@ -37,9 +36,6 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Tool</t>
-  </si>
-  <si>
     <t>Summary</t>
   </si>
   <si>
@@ -176,13 +172,40 @@
   </si>
   <si>
     <t>AWS RDS</t>
+  </si>
+  <si>
+    <t>FlagStar</t>
+  </si>
+  <si>
+    <t>SmartSheet</t>
+  </si>
+  <si>
+    <t>Developed query to retrieve users’ information from MongoDB</t>
+  </si>
+  <si>
+    <t>Retrieved user’s info when API is called and send email notifications to the officials</t>
+  </si>
+  <si>
+    <t>Migrate existing user database from MySQL to MongoDB</t>
+  </si>
+  <si>
+    <t>Engineered Cypher Script to query data from Neo4j Node</t>
+  </si>
+  <si>
+    <t>Connect to S3 bucket to Python ETL Script</t>
+  </si>
+  <si>
+    <t>Developed CLI tool to import CSV/TSV file into MongoDB</t>
+  </si>
+  <si>
+    <t>Max experinece</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,29 +213,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -220,33 +230,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,19 +551,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D365CAF7-762E-4867-AECE-922AB02FA9DE}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,24 +572,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -605,68 +598,110 @@
         <v>2024</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -675,61 +710,81 @@
         <v>2022</v>
       </c>
       <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>20</v>
       </c>
       <c r="C17">
         <v>2018</v>
@@ -738,242 +793,371 @@
         <v>2021</v>
       </c>
       <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3236A591-ACA6-40BA-86D5-284DAD416F43}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
+      <c r="C22">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -998,15 +1182,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1014,7 +1198,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1022,7 +1206,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1030,7 +1214,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1038,7 +1222,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1046,7 +1230,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1054,7 +1238,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1062,7 +1246,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1070,7 +1254,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>4</v>

--- a/Doc/Resume.xlsx
+++ b/Doc/Resume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www16\someProject\resume_Dashboard\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830083AC-FBAB-4106-8A78-E743967ED0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A194F04-1E20-4F2B-B09D-11AD2E9B4115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{AC176074-703E-4FD0-B993-BF0A13956E08}"/>
+    <workbookView xWindow="-38220" yWindow="315" windowWidth="28800" windowHeight="15345" xr2:uid="{AC176074-703E-4FD0-B993-BF0A13956E08}"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Label</t>
   </si>
@@ -199,6 +199,33 @@
   </si>
   <si>
     <t>Max experinece</t>
+  </si>
+  <si>
+    <t>Manage Repo for App deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debeloped schell script to run python etl script to import CSV dump into Oracle </t>
+  </si>
+  <si>
+    <t>Create Sample dashboard to demostarte the Callibra data catalog</t>
+  </si>
+  <si>
+    <t>Develop workflow for onboarding new user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop views for the reporting </t>
+  </si>
+  <si>
+    <t>Develop Script for profiling Database</t>
+  </si>
+  <si>
+    <t>Developed Script to import CSV file from AWS S3 bucket into Oracle DB</t>
+  </si>
+  <si>
+    <t>Create script to export data into CSV file</t>
+  </si>
+  <si>
+    <t>Create views from mutiple Table</t>
   </si>
 </sst>
 </file>
@@ -551,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D365CAF7-762E-4867-AECE-922AB02FA9DE}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +722,9 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -712,6 +742,9 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -723,6 +756,9 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -734,10 +770,13 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -745,80 +784,98 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>2018</v>
-      </c>
-      <c r="D17">
-        <v>2021</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19">
+        <v>2018</v>
+      </c>
+      <c r="D19">
+        <v>2021</v>
+      </c>
       <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -826,10 +883,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -837,10 +894,10 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -848,21 +905,21 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -870,30 +927,52 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -907,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3236A591-ACA6-40BA-86D5-284DAD416F43}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+    <sheetView zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
